--- a/sheet_name.xlsx
+++ b/sheet_name.xlsx
@@ -401,10 +401,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:A44"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="H14" activeCellId="0" pane="topLeft" sqref="H14"/>
+      <selection activeCell="L7" activeCellId="0" pane="topLeft" sqref="1:1048576 L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelRow="0" zeroHeight="0"/>
@@ -419,154 +419,252 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>04/01/20</t>
+          <t>05/01/20</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>May</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04/02/20</t>
+          <t>05/04/20</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>May</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>04/03/20</t>
+          <t>05/05/20</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>May</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>04/06/20</t>
+          <t>05/06/20</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>May</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>04/07/20</t>
+          <t>05/07/20</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>May</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>04/08/20</t>
+          <t>05/08/20</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>May</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>04/09/20</t>
+          <t>05/11/20</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>May</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>04/10/20</t>
+          <t>05/12/20</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>May</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>04/13/20</t>
+          <t>05/13/20</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>May</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>04/14/20</t>
+          <t>05/14/20</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>May</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>04/15/20</t>
+          <t>05/15/20</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>May</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>04/16/20</t>
+          <t>05/18/20</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>May</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>04/17/20</t>
+          <t>05/19/20</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>May</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>04/20/20</t>
+          <t>05/20/20</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>May</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>04/21/20</t>
+          <t>05/21/20</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>May</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>04/22/20</t>
+          <t>05/22/20</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>May</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>04/23/20</t>
+          <t>05/25/20</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>May</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>04/24/20</t>
+          <t>05/26/20</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>May</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>04/27/20</t>
+          <t>05/27/20</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>May</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>04/28/20</t>
+          <t>05/28/20</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>May</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>04/29/20</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>04/30/20</t>
+          <t>05/29/20</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>May</t>
         </is>
       </c>
     </row>

--- a/sheet_name.xlsx
+++ b/sheet_name.xlsx
@@ -401,10 +401,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="L7" activeCellId="0" pane="topLeft" sqref="1:1048576 L7"/>
+      <selection activeCell="H16" activeCellId="0" pane="topLeft" sqref="1:1048576 H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelRow="0" zeroHeight="0"/>
@@ -419,252 +419,264 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>05/01/20</t>
+          <t>06/01/20</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>June</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>06/02/20</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>June</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>05/04/20</t>
+          <t>06/03/20</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>June</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>06/04/20</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>June</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>05/05/20</t>
+          <t>06/05/20</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>June</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>06/08/20</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>June</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>05/06/20</t>
+          <t>06/09/20</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>June</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>06/10/20</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>June</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>05/07/20</t>
+          <t>06/11/20</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>June</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>06/12/20</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>June</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>05/08/20</t>
+          <t>06/15/20</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>June</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>06/16/20</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>June</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>05/11/20</t>
+          <t>06/17/20</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>June</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>06/18/20</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>June</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>05/12/20</t>
+          <t>06/19/20</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>June</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>06/22/20</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>June</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>05/13/20</t>
+          <t>06/23/20</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>June</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>06/24/20</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>June</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>05/14/20</t>
+          <t>06/25/20</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>June</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>06/26/20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>June</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>05/15/20</t>
+          <t>06/29/20</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>May</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>05/18/20</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>05/19/20</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>05/20/20</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>05/21/20</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>05/22/20</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>05/25/20</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>05/26/20</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>05/27/20</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>05/28/20</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>05/29/20</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>May</t>
+          <t>June</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>06/30/20</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>June</t>
         </is>
       </c>
     </row>

--- a/sheet_name.xlsx
+++ b/sheet_name.xlsx
@@ -4,50 +4,26 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt formatCode="YYYY\-MM\-DD" numFmtId="164"/>
-  </numFmts>
-  <fonts count="5">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
-      <charset val="1"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <sz val="11"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -67,48 +43,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+  <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
+  <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" name="Comma" xfId="1"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="2"/>
-    <cellStyle builtinId="4" name="Currency" xfId="3"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
-    <cellStyle builtinId="5" name="Percent" xfId="5"/>
+  <cellStyles count="1">
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -397,292 +341,283 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A2:B44"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="H16" activeCellId="0" pane="topLeft" sqref="1:1048576 H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelRow="0" zeroHeight="0"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" style="4" width="8.529999999999999"/>
-    <col customWidth="1" max="1025" min="2" style="5" width="8.529999999999999"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row customHeight="1" ht="13.8" r="1" s="6">
-      <c r="A1" s="7" t="n"/>
-    </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>06/01/20</t>
+          <t>07/01/20</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>June</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>06/02/20</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>06/03/20</t>
+          <t>07/02/20</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>June</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>06/04/20</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>06/05/20</t>
+          <t>07/03/20</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>June</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>06/08/20</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>06/09/20</t>
+          <t>07/06/20</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>June</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>06/10/20</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>06/11/20</t>
+          <t>07/07/20</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>June</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>06/12/20</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>06/15/20</t>
+          <t>07/08/20</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>June</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>06/16/20</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>06/17/20</t>
+          <t>07/09/20</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>June</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>06/18/20</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>06/19/20</t>
+          <t>07/10/20</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>June</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>06/22/20</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>06/23/20</t>
+          <t>07/13/20</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>June</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>06/24/20</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>06/25/20</t>
+          <t>07/14/20</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>June</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>06/26/20</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>06/29/20</t>
+          <t>07/15/20</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>June</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>06/30/20</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>June</t>
+          <t>July</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>07/16/20</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>July</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>07/17/20</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>July</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>07/20/20</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>July</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>07/21/20</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>July</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>07/22/20</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>July</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>07/23/20</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>July</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>07/24/20</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>July</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>07/27/20</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>July</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>07/28/20</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>July</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>07/29/20</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>July</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>07/30/20</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>July</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>